--- a/insurance_claims.xlsx
+++ b/insurance_claims.xlsx
@@ -111082,18 +111082,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C68B36B10AF3E45B24CF4795B922BCF" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a8ca389270a484c113e599af0d5fa650">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004AA1BCCD09BE21499DB99F830F5D2A8B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a8ca4fa230bbe5302581f36d757b79f9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af028a89-73dd-414e-837f-fb2a644b0abe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4dc48f53987f9111a806f8d71192133" ns2:_="">
+    <xsd:import namespace="af028a89-73dd-414e-837f-fb2a644b0abe"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="af028a89-73dd-414e-837f-fb2a644b0abe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -111211,7 +111255,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9099929-F975-4FD7-B6DC-6C76E8DF13EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0465268C-2583-4704-81E0-BE9D342558CB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
